--- a/GATEWAY/A1#111DXCTECHNOLO/dxc/sinfonia-vaccini/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DXCTECHNOLO/dxc/sinfonia-vaccini/2.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal.sharepoint.com/sites/PiattaformaVaccinaleSinfonia/Shared Documents/Piattaforma Vaccinale 2.0/Analysis And Design/Integrazione-fse/accreditamento/GATEWAY/A1#111DXCTECHNOLO/dxc/sinfonia-vaccini/2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaginario\Documents\Lavoro\Progetti\SGISanita-Projects\FSE-TestCaseAccreditamento\GATEWAY\A1#111DXCTECHNOLO\dxc\sinfonia-vaccini\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{8BC4A823-6360-4521-8F2F-E305EAB1E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4090CB03-FADF-412B-8683-31B2905EBD07}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC4A823-6360-4521-8F2F-E305EAB1E4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="233">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -585,6 +585,9 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
+    <t>modifica dei dati non corretti e successivo reinvio</t>
+  </si>
+  <si>
     <t>subject_application_id:sinfonia-vaccini</t>
   </si>
   <si>
@@ -689,6 +692,9 @@
   </si>
   <si>
     <t>2023-05-10T14:14:19Z</t>
+  </si>
+  <si>
+    <t>Nuovo Reinvio dopo un certo intervallo</t>
   </si>
   <si>
     <t>Si</t>
@@ -990,28 +996,6 @@
   </si>
   <si>
     <t>2023-05-24T10:41:20Zs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL sottosistema di inoltro a FSE è asincrono rispetto all'azione dell'operatore (medico) pertanto l'operatività   non viene impattata in nessun caso.   in caso di errore il sistema registra l'identificativo della transazione in modo da poterla risomettere a valle delle opportune correzioni. 
-Nello specifico, per eseguire il caso di test è stato disabilitato il campo in configurazione in modo da simulare l'errore. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IL sottosistema di inoltro a FSE è asincrono rispetto all'azione dell'operatore (medico) pertanto l'operatività   non viene impattata in nessun caso. 
-Nello specifico, per eseguire il caso di test è stata disabilitata la validazione dei campi in modo da simulare l'errore.  Nella operatività reale questo scenario non può verificarsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IL sottosistema di inoltro a FSE è asincrono rispetto all'azione dell'operatore (medico) pertanto l'operatività   non viene impattata in nessun caso. 
-Nello specifico, per eseguire il caso di test è stata disabilitata da configurazione del sistema l'inserimento della sezione narrativa. Nella operatività reale questo scenario non può verificarsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Il campo In oggetto non viene impostato dall'operatore ma dal sistema con valore costante pari a "N". 
- Per eseguire il caso di test è stata disabilitato questo meccanismo  in modo da simulare l'errore.  Nella operatività reale questo scenario non può verificarsi</t>
-  </si>
-  <si>
-    <t>IL sistema prevede  un meccanismo di retry di tipo exponential backoff. Nel caso di failure il sistema registra l'id della transazione per un successivo inoltro manuale</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1448,6 +1432,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,18 +1500,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3999,13 +3977,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4044,12 +4023,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="62"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4067,14 +4046,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="62"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4092,12 +4071,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="64"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4116,12 +4095,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="64"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="62"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4139,8 +4118,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4257,33 +4236,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="135.75" thickBot="1">
+    <row r="10" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A10" s="20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="F10" s="23">
-        <v>45070</v>
+        <v>45056</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>62</v>
@@ -4301,33 +4280,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="135.75" thickBot="1">
+    <row r="11" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A11" s="20">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="F11" s="23">
         <v>45070</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>62</v>
@@ -4345,33 +4324,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="135.75" thickBot="1">
+    <row r="12" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A12" s="20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="F12" s="23">
         <v>45070</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>62</v>
@@ -4389,33 +4368,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="135.75" thickBot="1">
+    <row r="13" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A13" s="20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="F13" s="23">
         <v>45070</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>62</v>
@@ -4433,9 +4412,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="150.75" thickBot="1">
+    <row r="14" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A14" s="20">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>48</v>
@@ -4444,42 +4423,50 @@
         <v>47</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F14" s="23">
         <v>45056</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="O14" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
       <c r="S14" s="27"/>
       <c r="T14" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="150.75" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A15" s="20">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>48</v>
@@ -4488,42 +4475,50 @@
         <v>47</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F15" s="23">
-        <v>45070</v>
+        <v>45056</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>213</v>
+        <v>138</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
       <c r="T15" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="150.75" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="45.75" hidden="1" thickBot="1">
       <c r="A16" s="20">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>48</v>
@@ -4532,42 +4527,38 @@
         <v>47</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="23">
-        <v>45070</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>216</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="P16" s="33" t="s">
+        <v>142</v>
+      </c>
       <c r="Q16" s="25"/>
-      <c r="R16" s="26"/>
+      <c r="R16" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="S16" s="27"/>
       <c r="T16" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="150.75" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A17" s="20">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>48</v>
@@ -4576,94 +4567,88 @@
         <v>47</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F17" s="23">
-        <v>45070</v>
+        <v>45056</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="O17" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
       <c r="S17" s="27"/>
       <c r="T17" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="43" customFormat="1" ht="240.75" thickBot="1">
-      <c r="A18" s="20">
-        <v>33</v>
-      </c>
-      <c r="B18" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="45" customFormat="1" ht="120.75" hidden="1" thickBot="1">
+      <c r="A18" s="36">
+        <v>108</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="23">
-        <v>45058</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="25" t="s">
+      <c r="C18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
+      <c r="K18" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="240.75" thickBot="1">
+    <row r="19" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A19" s="20">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>48</v>
@@ -4672,22 +4657,22 @@
         <v>47</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F19" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>105</v>
+        <v>144</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>62</v>
@@ -4701,10 +4686,10 @@
       </c>
       <c r="N19" s="25"/>
       <c r="O19" s="25" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -4713,35 +4698,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="240.75" thickBot="1">
+    <row r="20" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A20" s="20">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F20" s="23">
-        <v>45058</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="25" t="s">
+        <v>45056</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K20" s="25"/>
@@ -4756,7 +4741,7 @@
         <v>62</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -4765,9 +4750,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="240.75" thickBot="1">
+    <row r="21" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A21" s="20">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>48</v>
@@ -4776,27 +4761,27 @@
         <v>47</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F21" s="23">
         <v>45056</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="25" t="s">
         <v>62</v>
       </c>
@@ -4805,10 +4790,10 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -4817,49 +4802,61 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="105.75" thickBot="1">
+    <row r="22" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A22" s="20">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="F22" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="J22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="33" t="s">
-        <v>235</v>
+      <c r="O22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="Q22" s="25"/>
-      <c r="R22" s="26" t="s">
-        <v>62</v>
-      </c>
+      <c r="R22" s="26"/>
       <c r="S22" s="27"/>
       <c r="T22" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="105.75" thickBot="1">
+    <row r="23" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A23" s="20">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>48</v>
@@ -4868,64 +4865,76 @@
         <v>47</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F23" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="J23" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="33" t="s">
-        <v>235</v>
+      <c r="O23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="Q23" s="25"/>
-      <c r="R23" s="26" t="s">
-        <v>62</v>
-      </c>
+      <c r="R23" s="26"/>
       <c r="S23" s="27"/>
       <c r="T23" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="180.75" thickBot="1">
+    <row r="24" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A24" s="20">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="F24" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K24" s="25"/>
@@ -4940,7 +4949,7 @@
         <v>62</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
@@ -4949,75 +4958,87 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="135.75" thickBot="1">
-      <c r="A25" s="45">
-        <v>95</v>
-      </c>
-      <c r="B25" s="46" t="s">
+    <row r="25" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+      <c r="A25" s="20">
+        <v>115</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50" t="s">
+      <c r="C25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="23">
+        <v>45056</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="25" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="53" t="s">
+      <c r="P25" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="180.75" thickBot="1">
+    <row r="26" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A26" s="20">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="F26" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K26" s="25"/>
@@ -5032,7 +5053,7 @@
         <v>62</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -5041,33 +5062,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="210.75" thickBot="1">
+    <row r="27" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A27" s="20">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="F27" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>62</v>
@@ -5084,7 +5105,7 @@
         <v>62</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -5093,35 +5114,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="210.75" thickBot="1">
+    <row r="28" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A28" s="20">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="F28" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K28" s="25"/>
@@ -5136,7 +5157,7 @@
         <v>62</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -5145,33 +5166,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="210.75" thickBot="1">
+    <row r="29" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A29" s="20">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="F29" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>178</v>
+        <v>110</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>62</v>
@@ -5188,7 +5209,7 @@
         <v>62</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
@@ -5197,35 +5218,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="225.75" thickBot="1">
+    <row r="30" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A30" s="20">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F30" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K30" s="25"/>
@@ -5240,7 +5261,7 @@
         <v>62</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
@@ -5249,35 +5270,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="210.75" thickBot="1">
+    <row r="31" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A31" s="20">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="F31" s="23">
-        <v>45057</v>
+        <v>45056</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K31" s="25"/>
@@ -5292,7 +5313,7 @@
         <v>62</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="26"/>
@@ -5301,9 +5322,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="32" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A32" s="20">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>48</v>
@@ -5312,50 +5333,42 @@
         <v>46</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="F32" s="23">
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K32" s="25"/>
-      <c r="L32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
       <c r="T32" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A33" s="20">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>48</v>
@@ -5364,50 +5377,42 @@
         <v>46</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="F33" s="23">
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K33" s="25"/>
-      <c r="L33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="26"/>
       <c r="S33" s="27"/>
       <c r="T33" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A34" s="20">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>48</v>
@@ -5416,50 +5421,42 @@
         <v>46</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F34" s="23">
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J34" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K34" s="25"/>
-      <c r="L34" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
       <c r="T34" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A35" s="20">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>48</v>
@@ -5468,79 +5465,71 @@
         <v>46</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="F35" s="23">
-        <v>45057</v>
+        <v>45070</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="J35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K35" s="25"/>
-      <c r="L35" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="26"/>
       <c r="S35" s="27"/>
       <c r="T35" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
-      <c r="A36" s="45">
-        <v>106</v>
-      </c>
-      <c r="B36" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="46" customFormat="1" ht="150.75" thickBot="1">
+      <c r="A36" s="20">
+        <v>33</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>204</v>
+      <c r="D36" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F36" s="23">
         <v>45058</v>
       </c>
-      <c r="G36" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36" s="56" t="s">
+      <c r="G36" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="49"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="25" t="s">
         <v>62</v>
       </c>
@@ -5552,42 +5541,42 @@
         <v>62</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="44" customFormat="1" ht="180.75" thickBot="1">
+    <row r="37" spans="1:20" s="46" customFormat="1" ht="165.75" thickBot="1">
       <c r="A37" s="20">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F37" s="23">
-        <v>45056</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>111</v>
+        <v>45058</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>62</v>
@@ -5601,10 +5590,10 @@
       </c>
       <c r="N37" s="25"/>
       <c r="O37" s="25" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="Q37" s="25"/>
       <c r="R37" s="26"/>
@@ -5613,71 +5602,73 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="44" customFormat="1" ht="120.75" thickBot="1">
-      <c r="A38" s="34">
-        <v>108</v>
-      </c>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:20" s="46" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A38" s="20">
+        <v>49</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39" t="s">
+      <c r="C38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="K38" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="42" t="s">
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="27"/>
+      <c r="T38" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="44" customFormat="1" ht="180.75" thickBot="1">
+    <row r="39" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A39" s="20">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="F39" s="23">
         <v>45057</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>62</v>
@@ -5691,10 +5682,10 @@
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P39" s="25" t="s">
-        <v>234</v>
+        <v>62</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -5703,90 +5694,76 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="54" customFormat="1" ht="210.75" thickBot="1">
-      <c r="A40" s="20">
-        <v>110</v>
-      </c>
-      <c r="B40" s="21" t="s">
+    <row r="40" spans="1:20" s="56" customFormat="1" ht="135.75" thickBot="1">
+      <c r="A40" s="47">
+        <v>95</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="23">
-        <v>45056</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="25" t="s">
+      <c r="C40" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="28" t="s">
+      <c r="K40" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="41" spans="1:20" s="46" customFormat="1" ht="105.75" thickBot="1">
       <c r="A41" s="20">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="F41" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="25" t="s">
         <v>62</v>
       </c>
@@ -5795,10 +5772,10 @@
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="25" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="26"/>
@@ -5807,36 +5784,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="42" spans="1:20" s="46" customFormat="1" ht="120.75" thickBot="1">
       <c r="A42" s="20">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="F42" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>141</v>
+        <v>160</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="25" t="s">
@@ -5847,10 +5824,10 @@
       </c>
       <c r="N42" s="25"/>
       <c r="O42" s="25" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="26"/>
@@ -5859,36 +5836,36 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="44" customFormat="1" ht="225.75" thickBot="1">
+    <row r="43" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A43" s="20">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="F43" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>117</v>
+        <v>160</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25" t="s">
@@ -5902,7 +5879,7 @@
         <v>62</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="26"/>
@@ -5911,35 +5888,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="44" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A44" s="20">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="F44" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K44" s="25"/>
@@ -5954,7 +5931,7 @@
         <v>62</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
@@ -5963,33 +5940,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="45" spans="1:20" s="46" customFormat="1" ht="105.75" thickBot="1">
       <c r="A45" s="20">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="F45" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>123</v>
+        <v>160</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>62</v>
@@ -6006,7 +5983,7 @@
         <v>62</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="26"/>
@@ -6015,35 +5992,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="46" spans="1:20" s="46" customFormat="1" ht="120.75" thickBot="1">
       <c r="A46" s="20">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F46" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J46" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K46" s="25"/>
@@ -6058,7 +6035,7 @@
         <v>62</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="26"/>
@@ -6067,33 +6044,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="47" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A47" s="20">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="F47" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="J47" s="33" t="s">
         <v>62</v>
@@ -6110,7 +6087,7 @@
         <v>62</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -6119,33 +6096,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="48" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A48" s="20">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="F48" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>62</v>
@@ -6162,7 +6139,7 @@
         <v>62</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
@@ -6171,35 +6148,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="49" spans="1:20" s="46" customFormat="1" ht="105.75" thickBot="1">
       <c r="A49" s="20">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="F49" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="33" t="s">
         <v>62</v>
       </c>
       <c r="K49" s="25"/>
@@ -6214,7 +6191,7 @@
         <v>62</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
@@ -6223,35 +6200,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="44" customFormat="1" ht="210.75" thickBot="1">
+    <row r="50" spans="1:20" s="46" customFormat="1" ht="135.75" thickBot="1">
       <c r="A50" s="20">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="F50" s="23">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="J50" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K50" s="25"/>
@@ -6266,7 +6243,7 @@
         <v>62</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q50" s="25"/>
       <c r="R50" s="26"/>
@@ -6275,38 +6252,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="54" customFormat="1" ht="210">
-      <c r="A51" s="20">
-        <v>121</v>
-      </c>
-      <c r="B51" s="21" t="s">
+    <row r="51" spans="1:20" s="56" customFormat="1" ht="135">
+      <c r="A51" s="47">
+        <v>106</v>
+      </c>
+      <c r="B51" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>93</v>
+      <c r="C51" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>206</v>
       </c>
       <c r="F51" s="23">
-        <v>45056</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="J51" s="33" t="s">
+        <v>45058</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J51" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="25"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="25" t="s">
         <v>62</v>
       </c>
@@ -6318,12 +6295,12 @@
         <v>62</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -15585,8 +15562,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T51" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:T51">
-      <sortCondition ref="A10:A51"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CERT_VAC"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:T31">
+      <sortCondition ref="B9:B31"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
